--- a/biology/Zoologie/Delia_platura/Delia_platura.xlsx
+++ b/biology/Zoologie/Delia_platura/Delia_platura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delia platura, la mouche des semis ou mouche grise des semis, est une espèce d'insectes diptères brachycères de la famille des Anthomyiidae.
 Cette mouche est un ravageur des cultures par ses larves qui se nourrissent non seulement de matières organiques en décomposition, mais attaquent aussi les graines en germination et les jeunes plantules. C'est une espèce très polyphage capable de détruire les semis de nombreuses plantes cultivées, tant en culture maraîchère qu'en grandes cultures.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delia platura a une répartition cosmopolite[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delia platura a une répartition cosmopolite.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>mouche de la graine du haricot
 mouche de l'oignon - donné de préférence à Delia antiqua
 mouche des légumineuses
-mouche grise des semis[2].</t>
+mouche grise des semis.</t>
         </is>
       </c>
     </row>
@@ -576,9 +592,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life.
 Anthomyia calopteni Riley, 1877
 Anthomyia cana Macquart, 1835
 Anthomyia corelia Walker, 1849
